--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$176</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="475">
   <si>
     <t>module</t>
   </si>
@@ -1838,6 +1838,24 @@
   </si>
   <si>
     <t>通话维度</t>
+  </si>
+  <si>
+    <t>商户资源</t>
+  </si>
+  <si>
+    <t>{"method":"merchant_resource_list","data":{"platform":"robot","sysType":"m"}}</t>
+  </si>
+  <si>
+    <t>呼叫报表</t>
+  </si>
+  <si>
+    <t>{"method":"report_call_dimension","data":{"currentPage":1,"pageSize":15}}</t>
+  </si>
+  <si>
+    <t>回收报表</t>
+  </si>
+  <si>
+    <t>{"method":"report_recycling_dimension","data":{"date":"2021-03","beginDate":"2021-03-01 00:00:00","endDate":"2021-03-31 23:59:59","currentPage":1,"pageSize":15}}</t>
   </si>
   <si>
     <t>{
@@ -2502,10 +2520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2523,9 +2541,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2540,30 +2587,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2575,27 +2625,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2614,40 +2663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2660,8 +2677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2682,7 +2700,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2694,19 +2742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2718,19 +2760,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2742,73 +2820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,43 +2844,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,10 +2911,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2913,6 +2929,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2936,7 +2978,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,23 +2986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2979,25 +3006,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -3006,131 +3024,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3485,10 +3503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="K164" sqref="K164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -7506,7 +7524,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>15</v>
@@ -7518,7 +7536,7 @@
         <v>17</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>33</v>
@@ -7527,9 +7545,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="10"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="M116" s="7"/>
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:13">
       <c r="A117" s="5" t="s">
@@ -7539,7 +7555,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>15</v>
@@ -7551,7 +7567,7 @@
         <v>17</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>33</v>
@@ -7560,19 +7576,17 @@
       <c r="J117" s="7"/>
       <c r="K117" s="10"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="M117" s="7"/>
     </row>
     <row r="118" ht="30" customHeight="1" spans="1:13">
       <c r="A118" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B118" s="5">
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>15</v>
@@ -7584,7 +7598,7 @@
         <v>17</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>33</v>
@@ -7593,19 +7607,17 @@
       <c r="J118" s="7"/>
       <c r="K118" s="10"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="M118" s="7"/>
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:13">
       <c r="A119" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B119" s="5">
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>15</v>
@@ -7617,7 +7629,7 @@
         <v>17</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>33</v>
@@ -7627,18 +7639,18 @@
       <c r="K119" s="10"/>
       <c r="L119" s="6"/>
       <c r="M119" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" ht="30" customHeight="1" spans="1:13">
       <c r="A120" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B120" s="5">
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>15</v>
@@ -7656,9 +7668,7 @@
         <v>33</v>
       </c>
       <c r="I120" s="7"/>
-      <c r="J120" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="J120" s="7"/>
       <c r="K120" s="10"/>
       <c r="L120" s="6"/>
       <c r="M120" s="7" t="s">
@@ -7667,25 +7677,25 @@
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:13">
       <c r="A121" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B121" s="5">
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>33</v>
@@ -7700,13 +7710,13 @@
     </row>
     <row r="122" ht="30" customHeight="1" spans="1:13">
       <c r="A122" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B122" s="5">
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>15</v>
@@ -7718,7 +7728,7 @@
         <v>17</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>33</v>
@@ -7733,31 +7743,33 @@
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B123" s="5">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" s="7" t="s">
+      <c r="H123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
       <c r="K123" s="10"/>
       <c r="L123" s="6"/>
       <c r="M123" s="7" t="s">
@@ -7766,7 +7778,7 @@
     </row>
     <row r="124" ht="30" customHeight="1" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B124" s="5">
         <v>123</v>
@@ -7799,7 +7811,7 @@
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B125" s="5">
         <v>124</v>
@@ -7832,13 +7844,13 @@
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B126" s="5">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>15</v>
@@ -7865,7 +7877,7 @@
     </row>
     <row r="127" ht="30" customHeight="1" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B127" s="5">
         <v>126</v>
@@ -7898,50 +7910,46 @@
     </row>
     <row r="128" ht="30" customHeight="1" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B128" s="5">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="L128" s="6" t="s">
-        <v>336</v>
-      </c>
+      <c r="K128" s="10"/>
+      <c r="L128" s="6"/>
       <c r="M128" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="30" customHeight="1" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B129" s="5">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>15</v>
@@ -7953,30 +7961,28 @@
         <v>17</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>340</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="10"/>
       <c r="L129" s="6"/>
       <c r="M129" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B130" s="5">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>15</v>
@@ -7988,32 +7994,28 @@
         <v>17</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-      <c r="K130" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="L130" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="K130" s="10"/>
+      <c r="L130" s="6"/>
       <c r="M130" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B131" s="5">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>15</v>
@@ -8025,45 +8027,51 @@
         <v>17</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="6"/>
+      <c r="K131" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="M131" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B132" s="5">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I132" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="10"/>
       <c r="L132" s="6"/>
@@ -8073,25 +8081,25 @@
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:13">
       <c r="A133" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B133" s="5">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>33</v>
@@ -8099,18 +8107,18 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:13">
       <c r="A134" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B134" s="5">
         <v>133</v>
@@ -8131,27 +8139,25 @@
         <v>351</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>353</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="10"/>
       <c r="L134" s="6"/>
       <c r="M134" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:13">
       <c r="A135" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B135" s="5">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>15</v>
@@ -8163,7 +8169,7 @@
         <v>17</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>33</v>
@@ -8173,18 +8179,18 @@
       <c r="K135" s="10"/>
       <c r="L135" s="6"/>
       <c r="M135" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:13">
       <c r="A136" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B136" s="5">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
@@ -8196,7 +8202,7 @@
         <v>17</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>33</v>
@@ -8204,10 +8210,10 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M136" s="7" t="s">
         <v>64</v>
@@ -8215,13 +8221,13 @@
     </row>
     <row r="137" ht="30" customHeight="1" spans="1:13">
       <c r="A137" s="5" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B137" s="5">
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>15</v>
@@ -8233,32 +8239,30 @@
         <v>17</v>
       </c>
       <c r="G137" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I137" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H137" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-      <c r="K137" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="L137" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="K137" s="10"/>
+      <c r="L137" s="6"/>
       <c r="M137" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" ht="30" customHeight="1" spans="1:13">
       <c r="A138" s="5" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B138" s="5">
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>15</v>
@@ -8270,14 +8274,12 @@
         <v>17</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="10"/>
       <c r="L138" s="6"/>
@@ -8287,13 +8289,13 @@
     </row>
     <row r="139" ht="30" customHeight="1" spans="1:13">
       <c r="A139" s="5" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B139" s="5">
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>15</v>
@@ -8305,32 +8307,32 @@
         <v>17</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>366</v>
+        <v>33</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="10" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1" spans="1:13">
       <c r="A140" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B140" s="5">
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>15</v>
@@ -8342,28 +8344,32 @@
         <v>17</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="6"/>
+      <c r="K140" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="M140" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="141" ht="30" customHeight="1" spans="1:13">
       <c r="A141" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B141" s="5">
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>15</v>
@@ -8375,28 +8381,30 @@
         <v>17</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I141" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="J141" s="7"/>
       <c r="K141" s="10"/>
       <c r="L141" s="6"/>
       <c r="M141" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1" spans="1:13">
       <c r="A142" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B142" s="5">
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>15</v>
@@ -8408,26 +8416,26 @@
         <v>17</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" ht="30" customHeight="1" spans="1:13">
       <c r="A143" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B143" s="5">
         <v>142</v>
@@ -8445,30 +8453,28 @@
         <v>17</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>371</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="10"/>
       <c r="L143" s="6"/>
       <c r="M143" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" spans="1:13">
       <c r="A144" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B144" s="5">
         <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>15</v>
@@ -8480,7 +8486,7 @@
         <v>17</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>33</v>
@@ -8490,18 +8496,18 @@
       <c r="K144" s="10"/>
       <c r="L144" s="6"/>
       <c r="M144" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" ht="30" customHeight="1" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B145" s="5">
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>15</v>
@@ -8513,50 +8519,50 @@
         <v>17</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>375</v>
+        <v>33</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M145" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1" spans="1:13">
+    <row r="146" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B146" s="5">
         <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="7" t="s">
+      <c r="H146" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I146" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="10"/>
@@ -8565,15 +8571,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" ht="30" customHeight="1" spans="1:13">
+    <row r="147" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B147" s="5">
         <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
@@ -8585,32 +8591,28 @@
         <v>17</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-      <c r="K147" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="L147" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="K147" s="10"/>
+      <c r="L147" s="6"/>
       <c r="M147" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="148" ht="30" customHeight="1" spans="1:13">
       <c r="A148" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B148" s="5">
         <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
@@ -8622,32 +8624,32 @@
         <v>17</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="10" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" ht="30" customHeight="1" spans="1:13">
       <c r="A149" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B149" s="5">
         <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>15</v>
@@ -8659,28 +8661,30 @@
         <v>17</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I149" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="J149" s="7"/>
       <c r="K149" s="10"/>
       <c r="L149" s="6"/>
       <c r="M149" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" ht="30" customHeight="1" spans="1:13">
       <c r="A150" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B150" s="5">
         <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
@@ -8695,25 +8699,29 @@
         <v>386</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="6"/>
+      <c r="K150" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="M150" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" ht="30" customHeight="1" spans="1:13">
       <c r="A151" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B151" s="5">
         <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>15</v>
@@ -8725,26 +8733,26 @@
         <v>17</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="152" ht="30" customHeight="1" spans="1:13">
       <c r="A152" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B152" s="5">
         <v>151</v>
@@ -8762,30 +8770,28 @@
         <v>17</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>389</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="10"/>
       <c r="L152" s="6"/>
       <c r="M152" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" ht="30" customHeight="1" spans="1:13">
       <c r="A153" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B153" s="5">
         <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
@@ -8797,7 +8803,7 @@
         <v>17</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>33</v>
@@ -8807,18 +8813,18 @@
       <c r="K153" s="10"/>
       <c r="L153" s="6"/>
       <c r="M153" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" ht="30" customHeight="1" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A154" s="5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B154" s="5">
         <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
@@ -8830,32 +8836,32 @@
         <v>17</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="M154" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="155" ht="30" customHeight="1" spans="1:13">
+    <row r="155" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B155" s="5">
         <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>15</v>
@@ -8870,29 +8876,27 @@
         <v>394</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I155" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="J155" s="7"/>
-      <c r="K155" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="L155" s="6" t="s">
-        <v>396</v>
-      </c>
+      <c r="K155" s="10"/>
+      <c r="L155" s="6"/>
       <c r="M155" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" ht="30" customHeight="1" spans="1:13">
+    <row r="156" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B156" s="5">
         <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>15</v>
@@ -8904,32 +8908,28 @@
         <v>17</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-      <c r="K156" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="L156" s="6" t="s">
-        <v>400</v>
-      </c>
+      <c r="K156" s="10"/>
+      <c r="L156" s="6"/>
       <c r="M156" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B157" s="5">
         <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>15</v>
@@ -8941,32 +8941,32 @@
         <v>17</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="158" ht="30" customHeight="1" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B158" s="5">
         <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
@@ -8978,32 +8978,32 @@
         <v>17</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="159" ht="30" customHeight="1" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B159" s="5">
         <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>15</v>
@@ -9015,18 +9015,18 @@
         <v>17</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>21</v>
@@ -9034,13 +9034,13 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B160" s="5">
         <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>15</v>
@@ -9052,32 +9052,32 @@
         <v>17</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" ht="30" customHeight="1" spans="1:13">
+    <row r="161" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B161" s="5">
         <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>15</v>
@@ -9089,32 +9089,32 @@
         <v>17</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" ht="30" customHeight="1" spans="1:13">
+    <row r="162" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A162" s="5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B162" s="5">
         <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
@@ -9126,28 +9126,32 @@
         <v>17</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="6"/>
+      <c r="K162" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="M162" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:13">
       <c r="A163" s="5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B163" s="5">
         <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>203</v>
+        <v>418</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>15</v>
@@ -9159,30 +9163,32 @@
         <v>17</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I163" s="7"/>
-      <c r="J163" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K163" s="10"/>
-      <c r="L163" s="6"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="M163" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:13">
       <c r="A164" s="5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B164" s="5">
         <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>15</v>
@@ -9194,30 +9200,32 @@
         <v>17</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I164" s="7"/>
-      <c r="J164" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K164" s="10"/>
-      <c r="L164" s="6"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="M164" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B165" s="5">
         <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>283</v>
+        <v>423</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>15</v>
@@ -9229,10 +9237,10 @@
         <v>17</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -9244,7 +9252,7 @@
     </row>
     <row r="166" ht="30" customHeight="1" spans="1:13">
       <c r="A166" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B166" s="5">
         <v>165</v>
@@ -9262,14 +9270,14 @@
         <v>17</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K166" s="10"/>
       <c r="L166" s="6"/>
@@ -9279,13 +9287,13 @@
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:13">
       <c r="A167" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B167" s="5">
         <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>15</v>
@@ -9297,14 +9305,14 @@
         <v>17</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K167" s="10"/>
       <c r="L167" s="6"/>
@@ -9314,7 +9322,7 @@
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B168" s="5">
         <v>167</v>
@@ -9332,10 +9340,10 @@
         <v>17</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -9347,13 +9355,13 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:13">
       <c r="A169" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B169" s="5">
         <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>445</v>
+        <v>203</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>15</v>
@@ -9365,30 +9373,30 @@
         <v>17</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K169" s="10"/>
       <c r="L169" s="6"/>
       <c r="M169" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:13">
       <c r="A170" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B170" s="5">
         <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>15</v>
@@ -9400,30 +9408,30 @@
         <v>17</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K170" s="10"/>
       <c r="L170" s="6"/>
       <c r="M170" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:13">
       <c r="A171" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B171" s="5">
         <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>453</v>
+        <v>283</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>15</v>
@@ -9435,15 +9443,13 @@
         <v>17</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I171" s="7"/>
-      <c r="J171" s="7" t="s">
-        <v>456</v>
-      </c>
+      <c r="J171" s="7"/>
       <c r="K171" s="10"/>
       <c r="L171" s="6"/>
       <c r="M171" s="7" t="s">
@@ -9452,13 +9458,13 @@
     </row>
     <row r="172" ht="30" customHeight="1" spans="1:13">
       <c r="A172" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B172" s="5">
         <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>15</v>
@@ -9470,14 +9476,14 @@
         <v>17</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K172" s="10"/>
       <c r="L172" s="6"/>
@@ -9487,13 +9493,13 @@
     </row>
     <row r="173" ht="30" customHeight="1" spans="1:13">
       <c r="A173" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B173" s="5">
         <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>15</v>
@@ -9505,21 +9511,126 @@
         <v>17</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="J173" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="K173" s="10"/>
       <c r="L173" s="6"/>
       <c r="M173" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="174" ht="30" customHeight="1" spans="1:13">
+      <c r="A174" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B174" s="5">
+        <v>173</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K174" s="10"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" ht="30" customHeight="1" spans="1:13">
+      <c r="A175" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B175" s="5">
+        <v>174</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K175" s="10"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" ht="30" customHeight="1" spans="1:13">
+      <c r="A176" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B176" s="5">
+        <v>175</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M173">
+  <autoFilter ref="A1:M176">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -9567,10 +9678,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -9578,16 +9689,16 @@
     </row>
     <row r="2" ht="195" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E2" s="3">
         <v>286</v>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="474">
   <si>
     <t>module</t>
   </si>
@@ -93,8 +93,8 @@
     "v": "1.0",
     "timestamp": "2020-12-03 10:44:00",
     "data": {
-        "packetName": "test委案1111",
-        "productId": "1624152998726860800",
+        "packetName": "test委案121123",
+        "productId": "1812776158236770305",
         "resourceId": "1624147176965799936"
     }
 }</t>
@@ -365,9 +365,6 @@
     <t>["customerName","${name}"]</t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
     <t>查询身份证号</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>["customerCode","${customercode}"]</t>
+  </si>
+  <si>
+    <t>失败</t>
   </si>
   <si>
     <t>详情-还款信息</t>
@@ -1846,6 +1846,9 @@
     <t>{"method":"merchant_resource_list","data":{"platform":"robot","sysType":"m"}}</t>
   </si>
   <si>
+    <t>["merchantName","测试商户"]</t>
+  </si>
+  <si>
     <t>呼叫报表</t>
   </si>
   <si>
@@ -2308,25 +2311,19 @@
     <t>通话计费</t>
   </si>
   <si>
-    <t>{"method":"report_fee_query_call_fee_list_by_page","v":"1.0","timestamp":"2021-01-05 11:17:14","data":{"pageSize":15,"currentPage":1,"batchName":"20201224_M2_1_1"}}</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>["batchName","20201224_M2_1_1"]</t>
+    <t>{"method":"report_fee_query_call_fee_list_by_page","v":"1.0","timestamp":"2021-01-05 11:17:14","data":{"pageSize":15,"currentPage":1,"batchName":"20210409_M1_2_1"}}</t>
+  </si>
+  <si>
+    <t>["batchName","20210409_M1_2_1"]</t>
   </si>
   <si>
     <t>查询计费任务名称</t>
   </si>
   <si>
-    <t>{"method":"report_fee_query_call_fee_list_by_page","v":"1.0","timestamp":"2021-01-05 11:19:56","data":{"pageSize":15,"currentPage":1,"taskName":"test1224"}}</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>["taskName","test1224"]</t>
+    <t>{"method":"report_fee_query_call_fee_list_by_page","v":"1.0","timestamp":"2021-01-05 11:19:56","data":{"pageSize":15,"currentPage":1,"taskName":"test0331"}}</t>
+  </si>
+  <si>
+    <t>["taskName","test0331"]</t>
   </si>
   <si>
     <t>{"method":"report_fee_export_call_fee","v":"1.0","timestamp":"2021-01-05 11:20:18","data":{"pageSize":15,"currentPage":1}}</t>
@@ -2521,9 +2518,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2548,14 +2545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2564,7 +2553,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2572,15 +2561,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2593,19 +2581,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2627,24 +2614,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2663,13 +2635,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2679,7 +2669,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2700,7 +2697,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,7 +2751,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2724,7 +2859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2736,151 +2877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,28 +2930,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2983,26 +2978,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3012,7 +3009,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3">
@@ -3024,131 +3021,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3505,8 +3502,8 @@
   <sheetPr/>
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="K164" sqref="K164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -4088,7 +4085,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
@@ -4099,26 +4096,26 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="6"/>
@@ -4134,19 +4131,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>33</v>
@@ -4169,31 +4166,31 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="6"/>
       <c r="M19" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
@@ -4204,31 +4201,31 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:13">
@@ -4368,7 +4365,7 @@
         <v>87</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:13">
@@ -4440,7 +4437,7 @@
         <v>94</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:13">
@@ -4512,7 +4509,7 @@
         <v>101</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:13">
@@ -4654,7 +4651,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:13">
@@ -4689,7 +4686,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:13">
@@ -4700,7 +4697,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
@@ -4724,7 +4721,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="6"/>
       <c r="M34" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:13">
@@ -4735,7 +4732,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
@@ -4754,12 +4751,12 @@
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:13">
@@ -4794,7 +4791,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:13">
@@ -4829,7 +4826,7 @@
       <c r="K37" s="10"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:13">
@@ -5146,7 +5143,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="6"/>
       <c r="M46" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:13">
@@ -5181,7 +5178,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:13">
@@ -5192,7 +5189,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>15</v>
@@ -5211,12 +5208,12 @@
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="6"/>
       <c r="M48" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:13">
@@ -5227,7 +5224,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>15</v>
@@ -5246,12 +5243,12 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="6"/>
       <c r="M49" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:13">
@@ -5719,7 +5716,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>15</v>
@@ -6405,7 +6402,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>15</v>
@@ -6806,7 +6803,7 @@
       <c r="K94" s="10"/>
       <c r="L94" s="6"/>
       <c r="M94" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:13">
@@ -6883,7 +6880,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>15</v>
@@ -7182,7 +7179,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>15</v>
@@ -7425,7 +7422,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>15</v>
@@ -7542,10 +7539,14 @@
         <v>33</v>
       </c>
       <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="J116" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="K116" s="10"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="7"/>
+      <c r="M116" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:13">
       <c r="A117" s="5" t="s">
@@ -7555,7 +7556,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>15</v>
@@ -7567,7 +7568,7 @@
         <v>17</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>33</v>
@@ -7576,7 +7577,9 @@
       <c r="J117" s="7"/>
       <c r="K117" s="10"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="7"/>
+      <c r="M117" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="118" ht="30" customHeight="1" spans="1:13">
       <c r="A118" s="5" t="s">
@@ -7586,7 +7589,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>15</v>
@@ -7598,7 +7601,7 @@
         <v>17</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>33</v>
@@ -7607,7 +7610,9 @@
       <c r="J118" s="7"/>
       <c r="K118" s="10"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="7"/>
+      <c r="M118" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:13">
       <c r="A119" s="5" t="s">
@@ -7629,7 +7634,7 @@
         <v>17</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>33</v>
@@ -7639,7 +7644,7 @@
       <c r="K119" s="10"/>
       <c r="L119" s="6"/>
       <c r="M119" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" ht="30" customHeight="1" spans="1:13">
@@ -7662,7 +7667,7 @@
         <v>17</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>33</v>
@@ -7677,7 +7682,7 @@
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:13">
       <c r="A121" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B121" s="5">
         <v>120</v>
@@ -7695,7 +7700,7 @@
         <v>17</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>33</v>
@@ -7710,7 +7715,7 @@
     </row>
     <row r="122" ht="30" customHeight="1" spans="1:13">
       <c r="A122" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B122" s="5">
         <v>121</v>
@@ -7728,7 +7733,7 @@
         <v>17</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>33</v>
@@ -7743,13 +7748,13 @@
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B123" s="5">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>15</v>
@@ -7761,14 +7766,14 @@
         <v>17</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K123" s="10"/>
       <c r="L123" s="6"/>
@@ -7778,13 +7783,13 @@
     </row>
     <row r="124" ht="30" customHeight="1" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B124" s="5">
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>15</v>
@@ -7796,7 +7801,7 @@
         <v>17</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>33</v>
@@ -7811,13 +7816,13 @@
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B125" s="5">
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>15</v>
@@ -7829,7 +7834,7 @@
         <v>17</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>33</v>
@@ -7844,13 +7849,13 @@
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B126" s="5">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>15</v>
@@ -7862,7 +7867,7 @@
         <v>17</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>33</v>
@@ -7877,13 +7882,13 @@
     </row>
     <row r="127" ht="30" customHeight="1" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B127" s="5">
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>15</v>
@@ -7895,7 +7900,7 @@
         <v>17</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>33</v>
@@ -7910,13 +7915,13 @@
     </row>
     <row r="128" ht="30" customHeight="1" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B128" s="5">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>15</v>
@@ -7928,7 +7933,7 @@
         <v>17</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>33</v>
@@ -7943,13 +7948,13 @@
     </row>
     <row r="129" ht="30" customHeight="1" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B129" s="5">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>15</v>
@@ -7961,7 +7966,7 @@
         <v>17</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>33</v>
@@ -7976,13 +7981,13 @@
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B130" s="5">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>15</v>
@@ -7994,7 +7999,7 @@
         <v>17</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>33</v>
@@ -8009,13 +8014,13 @@
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B131" s="5">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>15</v>
@@ -8027,7 +8032,7 @@
         <v>17</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>33</v>
@@ -8035,24 +8040,24 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B132" s="5">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>15</v>
@@ -8064,30 +8069,30 @@
         <v>17</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="10"/>
       <c r="L132" s="6"/>
       <c r="M132" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:13">
       <c r="A133" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B133" s="5">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>15</v>
@@ -8099,7 +8104,7 @@
         <v>17</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>33</v>
@@ -8107,10 +8112,10 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M133" s="7" t="s">
         <v>21</v>
@@ -8118,13 +8123,13 @@
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:13">
       <c r="A134" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B134" s="5">
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>15</v>
@@ -8136,7 +8141,7 @@
         <v>17</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>33</v>
@@ -8146,18 +8151,18 @@
       <c r="K134" s="10"/>
       <c r="L134" s="6"/>
       <c r="M134" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:13">
       <c r="A135" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B135" s="5">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>15</v>
@@ -8169,7 +8174,7 @@
         <v>17</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>33</v>
@@ -8179,18 +8184,18 @@
       <c r="K135" s="10"/>
       <c r="L135" s="6"/>
       <c r="M135" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:13">
       <c r="A136" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B136" s="5">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
@@ -8202,7 +8207,7 @@
         <v>17</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>33</v>
@@ -8210,24 +8215,24 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" ht="30" customHeight="1" spans="1:13">
       <c r="A137" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B137" s="5">
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>15</v>
@@ -8239,13 +8244,13 @@
         <v>17</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="10"/>
@@ -8256,13 +8261,13 @@
     </row>
     <row r="138" ht="30" customHeight="1" spans="1:13">
       <c r="A138" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B138" s="5">
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>15</v>
@@ -8274,7 +8279,7 @@
         <v>17</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>33</v>
@@ -8289,13 +8294,13 @@
     </row>
     <row r="139" ht="30" customHeight="1" spans="1:13">
       <c r="A139" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B139" s="5">
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>15</v>
@@ -8307,7 +8312,7 @@
         <v>17</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>33</v>
@@ -8315,24 +8320,24 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1" spans="1:13">
       <c r="A140" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B140" s="5">
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>15</v>
@@ -8344,32 +8349,32 @@
         <v>17</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" ht="30" customHeight="1" spans="1:13">
       <c r="A141" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B141" s="5">
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>15</v>
@@ -8381,13 +8386,13 @@
         <v>17</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="10"/>
@@ -8398,13 +8403,13 @@
     </row>
     <row r="142" ht="30" customHeight="1" spans="1:13">
       <c r="A142" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B142" s="5">
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>15</v>
@@ -8416,18 +8421,18 @@
         <v>17</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>21</v>
@@ -8435,13 +8440,13 @@
     </row>
     <row r="143" ht="30" customHeight="1" spans="1:13">
       <c r="A143" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B143" s="5">
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>15</v>
@@ -8453,7 +8458,7 @@
         <v>17</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>33</v>
@@ -8463,18 +8468,18 @@
       <c r="K143" s="10"/>
       <c r="L143" s="6"/>
       <c r="M143" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:13">
       <c r="A144" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B144" s="5">
         <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>15</v>
@@ -8486,7 +8491,7 @@
         <v>17</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>33</v>
@@ -8496,18 +8501,18 @@
       <c r="K144" s="10"/>
       <c r="L144" s="6"/>
       <c r="M144" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B145" s="5">
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>15</v>
@@ -8519,7 +8524,7 @@
         <v>17</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>33</v>
@@ -8527,24 +8532,24 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B146" s="5">
         <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
@@ -8556,13 +8561,13 @@
         <v>17</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="10"/>
@@ -8573,13 +8578,13 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B147" s="5">
         <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
@@ -8591,7 +8596,7 @@
         <v>17</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>33</v>
@@ -8606,13 +8611,13 @@
     </row>
     <row r="148" ht="30" customHeight="1" spans="1:13">
       <c r="A148" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B148" s="5">
         <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
@@ -8624,32 +8629,32 @@
         <v>17</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" ht="30" customHeight="1" spans="1:13">
       <c r="A149" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B149" s="5">
         <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>15</v>
@@ -8661,13 +8666,13 @@
         <v>17</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="10"/>
@@ -8678,13 +8683,13 @@
     </row>
     <row r="150" ht="30" customHeight="1" spans="1:13">
       <c r="A150" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B150" s="5">
         <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
@@ -8696,18 +8701,18 @@
         <v>17</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M150" s="7" t="s">
         <v>21</v>
@@ -8715,13 +8720,13 @@
     </row>
     <row r="151" ht="30" customHeight="1" spans="1:13">
       <c r="A151" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B151" s="5">
         <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>15</v>
@@ -8733,18 +8738,18 @@
         <v>17</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>21</v>
@@ -8752,13 +8757,13 @@
     </row>
     <row r="152" ht="30" customHeight="1" spans="1:13">
       <c r="A152" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B152" s="5">
         <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>15</v>
@@ -8770,7 +8775,7 @@
         <v>17</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>33</v>
@@ -8780,18 +8785,18 @@
       <c r="K152" s="10"/>
       <c r="L152" s="6"/>
       <c r="M152" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" ht="30" customHeight="1" spans="1:13">
       <c r="A153" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B153" s="5">
         <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
@@ -8803,7 +8808,7 @@
         <v>17</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>33</v>
@@ -8813,18 +8818,18 @@
       <c r="K153" s="10"/>
       <c r="L153" s="6"/>
       <c r="M153" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A154" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B154" s="5">
         <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
@@ -8836,18 +8841,18 @@
         <v>17</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M154" s="7" t="s">
         <v>21</v>
@@ -8855,13 +8860,13 @@
     </row>
     <row r="155" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B155" s="5">
         <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>15</v>
@@ -8873,13 +8878,13 @@
         <v>17</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="10"/>
@@ -8890,13 +8895,13 @@
     </row>
     <row r="156" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B156" s="5">
         <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>15</v>
@@ -8908,7 +8913,7 @@
         <v>17</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>33</v>
@@ -8923,13 +8928,13 @@
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B157" s="5">
         <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>15</v>
@@ -8941,18 +8946,18 @@
         <v>17</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>21</v>
@@ -8960,13 +8965,13 @@
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B158" s="5">
         <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
@@ -8978,18 +8983,18 @@
         <v>17</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>21</v>
@@ -8997,13 +9002,13 @@
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B159" s="5">
         <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>15</v>
@@ -9015,18 +9020,18 @@
         <v>17</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>21</v>
@@ -9034,13 +9039,13 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B160" s="5">
         <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>15</v>
@@ -9052,18 +9057,18 @@
         <v>17</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>21</v>
@@ -9071,13 +9076,13 @@
     </row>
     <row r="161" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B161" s="5">
         <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>15</v>
@@ -9089,18 +9094,18 @@
         <v>17</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>21</v>
@@ -9108,13 +9113,13 @@
     </row>
     <row r="162" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A162" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B162" s="5">
         <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
@@ -9126,18 +9131,18 @@
         <v>17</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M162" s="7" t="s">
         <v>21</v>
@@ -9145,13 +9150,13 @@
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:13">
       <c r="A163" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B163" s="5">
         <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>15</v>
@@ -9163,18 +9168,18 @@
         <v>17</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M163" s="7" t="s">
         <v>21</v>
@@ -9182,13 +9187,13 @@
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:13">
       <c r="A164" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B164" s="5">
         <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>15</v>
@@ -9200,18 +9205,18 @@
         <v>17</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M164" s="7" t="s">
         <v>21</v>
@@ -9219,13 +9224,13 @@
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B165" s="5">
         <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>15</v>
@@ -9237,10 +9242,10 @@
         <v>17</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -9252,7 +9257,7 @@
     </row>
     <row r="166" ht="30" customHeight="1" spans="1:13">
       <c r="A166" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B166" s="5">
         <v>165</v>
@@ -9270,10 +9275,10 @@
         <v>17</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>433</v>
+        <v>33</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7" t="s">
@@ -9282,12 +9287,12 @@
       <c r="K166" s="10"/>
       <c r="L166" s="6"/>
       <c r="M166" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:13">
       <c r="A167" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B167" s="5">
         <v>166</v>
@@ -9308,21 +9313,21 @@
         <v>436</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>437</v>
+        <v>33</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K167" s="10"/>
       <c r="L167" s="6"/>
       <c r="M167" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B168" s="5">
         <v>167</v>
@@ -9340,10 +9345,10 @@
         <v>17</v>
       </c>
       <c r="G168" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H168" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>440</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -9355,7 +9360,7 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:13">
       <c r="A169" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B169" s="5">
         <v>168</v>
@@ -9373,24 +9378,24 @@
         <v>17</v>
       </c>
       <c r="G169" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H169" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>443</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K169" s="10"/>
       <c r="L169" s="6"/>
       <c r="M169" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:13">
       <c r="A170" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B170" s="5">
         <v>169</v>
@@ -9408,24 +9413,24 @@
         <v>17</v>
       </c>
       <c r="G170" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K170" s="10"/>
       <c r="L170" s="6"/>
       <c r="M170" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:13">
       <c r="A171" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B171" s="5">
         <v>170</v>
@@ -9443,10 +9448,10 @@
         <v>17</v>
       </c>
       <c r="G171" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H171" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -9458,32 +9463,32 @@
     </row>
     <row r="172" ht="30" customHeight="1" spans="1:13">
       <c r="A172" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B172" s="5">
         <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" s="7" t="s">
+      <c r="H172" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K172" s="10"/>
       <c r="L172" s="6"/>
@@ -9493,32 +9498,32 @@
     </row>
     <row r="173" ht="30" customHeight="1" spans="1:13">
       <c r="A173" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B173" s="5">
         <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="7" t="s">
+      <c r="H173" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K173" s="10"/>
       <c r="L173" s="6"/>
@@ -9528,32 +9533,32 @@
     </row>
     <row r="174" ht="30" customHeight="1" spans="1:13">
       <c r="A174" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B174" s="5">
         <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" s="7" t="s">
+      <c r="H174" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K174" s="10"/>
       <c r="L174" s="6"/>
@@ -9563,32 +9568,32 @@
     </row>
     <row r="175" ht="30" customHeight="1" spans="1:13">
       <c r="A175" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B175" s="5">
         <v>174</v>
       </c>
       <c r="C175" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="7" t="s">
+      <c r="H175" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K175" s="10"/>
       <c r="L175" s="6"/>
@@ -9598,28 +9603,28 @@
     </row>
     <row r="176" ht="30" customHeight="1" spans="1:13">
       <c r="A176" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B176" s="5">
         <v>175</v>
       </c>
       <c r="C176" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" s="7" t="s">
+      <c r="H176" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -9650,7 +9655,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -9678,10 +9683,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -9689,25 +9694,25 @@
     </row>
     <row r="2" ht="195" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E2" s="3">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F2" s="3">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G2" s="3">
-        <v>13333544006</v>
+        <v>13333544516</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -13917,13 +13917,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544518</v>
+        <v>13333544519</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -2057,7 +2057,7 @@
       <c r="L13" s="6" t="n"/>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       <c r="L38" s="6" t="n"/>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -13917,13 +13917,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544519</v>
+        <v>13333544521</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -36,9 +36,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -51,14 +52,29 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -81,9 +97,39 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,14 +149,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
@@ -119,17 +157,9 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -144,37 +174,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,13 +206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +236,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +302,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,79 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,30 +404,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -446,22 +422,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +451,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -500,16 +491,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -518,7 +518,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
@@ -527,122 +527,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2057,7 +2057,7 @@
       <c r="L13" s="6" t="n"/>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="L20" s="6" t="n"/>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       <c r="L38" s="6" t="n"/>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       <c r="L124" s="6" t="n"/>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -13917,13 +13917,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544521</v>
+        <v>13333544524</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -39,126 +39,12 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -178,6 +64,120 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -194,7 +194,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,37 +320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,67 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,16 +404,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,7 +421,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -442,26 +453,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,36 +500,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -518,131 +518,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10194,7 +10194,7 @@
       <c r="L124" s="6" t="n"/>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -13917,13 +13917,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544524</v>
+        <v>13333544526</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17940" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,16 +49,28 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,31 +84,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,7 +109,24 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -127,15 +135,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,14 +172,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -212,13 +212,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,37 +302,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,12 +350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,13 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,21 +417,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +504,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -524,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -536,32 +536,32 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
@@ -573,98 +573,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -733,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -1474,11 +1477,7 @@
       </c>
       <c r="K5" s="21" t="n"/>
       <c r="L5" s="9" t="n"/>
-      <c r="M5" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M5" s="10" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="8" t="inlineStr">
@@ -3079,11 +3078,7 @@
       </c>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="14" t="n"/>
-      <c r="M27" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M27" s="15" t="n"/>
     </row>
     <row r="28" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A28" s="13" t="inlineStr">
@@ -3146,11 +3141,7 @@
       </c>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="14" t="n"/>
-      <c r="M28" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M28" s="15" t="n"/>
     </row>
     <row r="29" ht="30" customFormat="1" customHeight="1" s="6">
       <c r="A29" s="17" t="inlineStr">
@@ -3213,11 +3204,7 @@
       </c>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="18" t="n"/>
-      <c r="M29" s="19" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M29" s="19" t="n"/>
     </row>
     <row r="30" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A30" s="13" t="inlineStr">
@@ -3414,11 +3401,7 @@
       </c>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="14" t="n"/>
-      <c r="M32" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M32" s="15" t="n"/>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="8" t="inlineStr">
@@ -3721,7 +3704,7 @@
           <t>id</t>
         </is>
       </c>
-      <c r="L36" s="9" t="n"/>
+      <c r="L36" s="24" t="n"/>
       <c r="M36" s="10" t="inlineStr">
         <is>
           <t>失败</t>
@@ -4020,7 +4003,7 @@
       <c r="L40" s="9" t="n"/>
       <c r="M40" s="10" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4070,7 @@
       <c r="L41" s="9" t="n"/>
       <c r="M41" s="10" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4215,7 @@
       <c r="L43" s="14" t="n"/>
       <c r="M43" s="15" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4292,7 @@
       <c r="L44" s="14" t="n"/>
       <c r="M44" s="15" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4366,7 @@
       <c r="L45" s="14" t="n"/>
       <c r="M45" s="15" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -4954,11 +4937,7 @@
       </c>
       <c r="K53" s="21" t="n"/>
       <c r="L53" s="21" t="n"/>
-      <c r="M53" s="10" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M53" s="10" t="n"/>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="8" t="inlineStr">
@@ -5102,7 +5081,7 @@
       </c>
       <c r="L55" s="9" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>817</t>
         </is>
       </c>
       <c r="M55" s="10" t="inlineStr">
@@ -5332,11 +5311,7 @@
       </c>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="14" t="n"/>
-      <c r="M58" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M58" s="15" t="n"/>
     </row>
     <row r="59" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A59" s="13" t="inlineStr">
@@ -5566,11 +5541,7 @@
       </c>
       <c r="K61" s="15" t="n"/>
       <c r="L61" s="14" t="n"/>
-      <c r="M61" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M61" s="15" t="n"/>
     </row>
     <row r="62" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A62" s="13" t="inlineStr">
@@ -5642,11 +5613,7 @@
       </c>
       <c r="K62" s="15" t="n"/>
       <c r="L62" s="14" t="n"/>
-      <c r="M62" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M62" s="15" t="n"/>
     </row>
     <row r="63" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A63" s="8" t="inlineStr">
@@ -5862,11 +5829,7 @@
       </c>
       <c r="K65" s="21" t="n"/>
       <c r="L65" s="9" t="n"/>
-      <c r="M65" s="10" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M65" s="10" t="n"/>
     </row>
     <row r="66" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A66" s="13" t="inlineStr">
@@ -7613,11 +7576,7 @@
       </c>
       <c r="K91" s="21" t="n"/>
       <c r="L91" s="9" t="n"/>
-      <c r="M91" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M91" s="10" t="n"/>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="8" t="inlineStr">
@@ -7680,11 +7639,7 @@
       </c>
       <c r="K92" s="21" t="n"/>
       <c r="L92" s="9" t="n"/>
-      <c r="M92" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M92" s="10" t="n"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="8" t="inlineStr">
@@ -7747,11 +7702,7 @@
       </c>
       <c r="K93" s="21" t="n"/>
       <c r="L93" s="9" t="n"/>
-      <c r="M93" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M93" s="10" t="n"/>
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="8" t="inlineStr">
@@ -7814,11 +7765,7 @@
       </c>
       <c r="K94" s="21" t="n"/>
       <c r="L94" s="9" t="n"/>
-      <c r="M94" s="10" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M94" s="10" t="n"/>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="8" t="inlineStr">
@@ -7881,11 +7828,7 @@
       </c>
       <c r="K95" s="21" t="n"/>
       <c r="L95" s="9" t="n"/>
-      <c r="M95" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M95" s="10" t="n"/>
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="8" t="inlineStr">
@@ -8556,11 +8499,7 @@
       </c>
       <c r="K104" s="21" t="n"/>
       <c r="L104" s="9" t="n"/>
-      <c r="M104" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M104" s="10" t="n"/>
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="8" t="inlineStr">
@@ -9649,11 +9588,7 @@
       </c>
       <c r="K119" s="21" t="n"/>
       <c r="L119" s="9" t="n"/>
-      <c r="M119" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M119" s="10" t="n"/>
     </row>
     <row r="120" ht="30" customHeight="1">
       <c r="A120" s="8" t="inlineStr">
@@ -9799,11 +9734,7 @@
       </c>
       <c r="K121" s="21" t="n"/>
       <c r="L121" s="9" t="n"/>
-      <c r="M121" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M121" s="10" t="n"/>
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="A122" s="8" t="inlineStr">
@@ -10094,11 +10025,7 @@
       </c>
       <c r="K125" s="21" t="n"/>
       <c r="L125" s="9" t="n"/>
-      <c r="M125" s="10" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M125" s="10" t="n"/>
     </row>
     <row r="126" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A126" s="13" t="inlineStr">
@@ -10161,11 +10088,7 @@
       </c>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="14" t="n"/>
-      <c r="M126" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M126" s="15" t="n"/>
     </row>
     <row r="127" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A127" s="13" t="inlineStr">
@@ -10374,11 +10297,7 @@
       </c>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="14" t="n"/>
-      <c r="M129" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M129" s="15" t="n"/>
     </row>
     <row r="130" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A130" s="13" t="inlineStr">
@@ -10508,11 +10427,7 @@
       </c>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="14" t="n"/>
-      <c r="M131" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M131" s="15" t="n"/>
     </row>
     <row r="132" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A132" s="13" t="inlineStr">
@@ -10575,11 +10490,7 @@
       </c>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="14" t="n"/>
-      <c r="M132" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M132" s="15" t="n"/>
     </row>
     <row r="133" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A133" s="13" t="inlineStr">
@@ -10642,11 +10553,7 @@
       </c>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="14" t="n"/>
-      <c r="M133" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M133" s="15" t="n"/>
     </row>
     <row r="134" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A134" s="13" t="inlineStr">
@@ -10843,11 +10750,7 @@
       </c>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="14" t="n"/>
-      <c r="M136" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M136" s="15" t="n"/>
     </row>
     <row r="137" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A137" s="13" t="inlineStr">
@@ -10910,11 +10813,7 @@
       </c>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="14" t="n"/>
-      <c r="M137" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M137" s="15" t="n"/>
     </row>
     <row r="138" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A138" s="13" t="inlineStr">
@@ -11044,11 +10943,7 @@
       </c>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="14" t="n"/>
-      <c r="M139" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M139" s="15" t="n"/>
     </row>
     <row r="140" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A140" s="13" t="inlineStr">
@@ -11245,11 +11140,7 @@
       </c>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="14" t="n"/>
-      <c r="M142" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M142" s="15" t="n"/>
     </row>
     <row r="143" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A143" s="13" t="inlineStr">
@@ -11312,11 +11203,7 @@
       </c>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="14" t="n"/>
-      <c r="M143" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M143" s="15" t="n"/>
     </row>
     <row r="144" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A144" s="13" t="inlineStr">
@@ -11379,11 +11266,7 @@
       </c>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="14" t="n"/>
-      <c r="M144" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M144" s="15" t="n"/>
     </row>
     <row r="145" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A145" s="13" t="inlineStr">
@@ -11513,11 +11396,7 @@
       </c>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="14" t="n"/>
-      <c r="M146" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M146" s="15" t="n"/>
     </row>
     <row r="147" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A147" s="13" t="inlineStr">
@@ -11714,11 +11593,7 @@
       </c>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="14" t="n"/>
-      <c r="M149" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M149" s="15" t="n"/>
     </row>
     <row r="150" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A150" s="13" t="inlineStr">
@@ -11781,11 +11656,7 @@
       </c>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="14" t="n"/>
-      <c r="M150" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M150" s="15" t="n"/>
     </row>
     <row r="151" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A151" s="13" t="inlineStr">
@@ -11982,11 +11853,7 @@
       </c>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="14" t="n"/>
-      <c r="M153" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M153" s="15" t="n"/>
     </row>
     <row r="154" ht="26" customFormat="1" customHeight="1" s="5">
       <c r="A154" s="13" t="inlineStr">
@@ -12116,11 +11983,7 @@
       </c>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="14" t="n"/>
-      <c r="M155" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M155" s="15" t="n"/>
     </row>
     <row r="156" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A156" s="13" t="inlineStr">
@@ -12250,11 +12113,7 @@
       </c>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="14" t="n"/>
-      <c r="M157" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M157" s="15" t="n"/>
     </row>
     <row r="158" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A158" s="13" t="inlineStr">
@@ -12317,11 +12176,7 @@
       </c>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="14" t="n"/>
-      <c r="M158" s="15" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
+      <c r="M158" s="15" t="n"/>
     </row>
     <row r="159" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A159" s="13" t="inlineStr">
@@ -12384,11 +12239,7 @@
       </c>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="14" t="n"/>
-      <c r="M159" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M159" s="15" t="n"/>
     </row>
     <row r="160" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A160" s="13" t="inlineStr">
@@ -12518,11 +12369,7 @@
       </c>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="14" t="n"/>
-      <c r="M161" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M161" s="15" t="n"/>
     </row>
     <row r="162" ht="26" customFormat="1" customHeight="1" s="5">
       <c r="A162" s="13" t="inlineStr">
@@ -12652,11 +12499,7 @@
       </c>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="14" t="n"/>
-      <c r="M163" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M163" s="15" t="n"/>
     </row>
     <row r="164" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A164" s="13" t="inlineStr">
@@ -12786,11 +12629,7 @@
       </c>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="14" t="n"/>
-      <c r="M165" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M165" s="15" t="n"/>
     </row>
     <row r="166" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A166" s="13" t="inlineStr">
@@ -12853,11 +12692,7 @@
       </c>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="14" t="n"/>
-      <c r="M166" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M166" s="15" t="n"/>
     </row>
     <row r="167" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A167" s="13" t="inlineStr">
@@ -12920,11 +12755,7 @@
       </c>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="14" t="n"/>
-      <c r="M167" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M167" s="15" t="n"/>
     </row>
     <row r="168" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A168" s="13" t="inlineStr">
@@ -12987,11 +12818,7 @@
       </c>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="14" t="n"/>
-      <c r="M168" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M168" s="15" t="n"/>
     </row>
     <row r="169" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A169" s="13" t="inlineStr">
@@ -13054,11 +12881,7 @@
       </c>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="14" t="n"/>
-      <c r="M169" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M169" s="15" t="n"/>
     </row>
     <row r="170" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A170" s="13" t="inlineStr">
@@ -13121,11 +12944,7 @@
       </c>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="14" t="n"/>
-      <c r="M170" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M170" s="15" t="n"/>
     </row>
     <row r="171" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A171" s="13" t="inlineStr">
@@ -13188,11 +13007,7 @@
       </c>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="14" t="n"/>
-      <c r="M171" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M171" s="15" t="n"/>
     </row>
     <row r="172" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A172" s="13" t="inlineStr">
@@ -13255,11 +13070,7 @@
       </c>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="14" t="n"/>
-      <c r="M172" s="15" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M172" s="15" t="n"/>
     </row>
     <row r="173" ht="30" customHeight="1">
       <c r="A173" s="8" t="inlineStr">
@@ -13456,11 +13267,7 @@
       </c>
       <c r="K175" s="21" t="n"/>
       <c r="L175" s="9" t="n"/>
-      <c r="M175" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M175" s="10" t="n"/>
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="A176" s="8" t="inlineStr">
@@ -13657,11 +13464,7 @@
       </c>
       <c r="K178" s="21" t="n"/>
       <c r="L178" s="9" t="n"/>
-      <c r="M178" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M178" s="10" t="n"/>
     </row>
     <row r="179" ht="30" customHeight="1">
       <c r="A179" s="8" t="inlineStr">
@@ -13992,11 +13795,7 @@
       </c>
       <c r="K183" s="21" t="n"/>
       <c r="L183" s="9" t="n"/>
-      <c r="M183" s="10" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
+      <c r="M183" s="10" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M183"/>
@@ -14017,7 +13816,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -14169,13 +13968,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544530</v>
+        <v>13333544542</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -63,7 +63,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -77,17 +85,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,16 +107,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,22 +117,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,19 +147,37 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -186,7 +185,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -212,13 +212,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,127 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -432,56 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +464,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +472,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -536,29 +536,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
@@ -567,104 +573,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -733,9 +733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1123,7 @@
   <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -1477,7 +1474,11 @@
       </c>
       <c r="K5" s="21" t="n"/>
       <c r="L5" s="9" t="n"/>
-      <c r="M5" s="10" t="n"/>
+      <c r="M5" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="8" t="inlineStr">
@@ -2948,7 +2949,11 @@
       </c>
       <c r="K25" s="21" t="n"/>
       <c r="L25" s="9" t="n"/>
-      <c r="M25" s="10" t="n"/>
+      <c r="M25" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A26" s="13" t="inlineStr">
@@ -3078,7 +3083,11 @@
       </c>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="14" t="n"/>
-      <c r="M27" s="15" t="n"/>
+      <c r="M27" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A28" s="13" t="inlineStr">
@@ -3141,7 +3150,11 @@
       </c>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="14" t="n"/>
-      <c r="M28" s="15" t="n"/>
+      <c r="M28" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="30" customFormat="1" customHeight="1" s="6">
       <c r="A29" s="17" t="inlineStr">
@@ -3204,7 +3217,11 @@
       </c>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="18" t="n"/>
-      <c r="M29" s="19" t="n"/>
+      <c r="M29" s="19" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A30" s="13" t="inlineStr">
@@ -3401,7 +3418,11 @@
       </c>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="14" t="n"/>
-      <c r="M32" s="15" t="n"/>
+      <c r="M32" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="8" t="inlineStr">
@@ -3704,7 +3725,7 @@
           <t>id</t>
         </is>
       </c>
-      <c r="L36" s="24" t="n"/>
+      <c r="L36" s="9" t="n"/>
       <c r="M36" s="10" t="inlineStr">
         <is>
           <t>失败</t>
@@ -4937,7 +4958,11 @@
       </c>
       <c r="K53" s="21" t="n"/>
       <c r="L53" s="21" t="n"/>
-      <c r="M53" s="10" t="n"/>
+      <c r="M53" s="10" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="8" t="inlineStr">
@@ -5081,7 +5106,7 @@
       </c>
       <c r="L55" s="9" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>818</t>
         </is>
       </c>
       <c r="M55" s="10" t="inlineStr">
@@ -5311,7 +5336,11 @@
       </c>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="14" t="n"/>
-      <c r="M58" s="15" t="n"/>
+      <c r="M58" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A59" s="13" t="inlineStr">
@@ -5385,7 +5414,7 @@
       <c r="L59" s="14" t="n"/>
       <c r="M59" s="15" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5490,7 @@
       <c r="L60" s="14" t="n"/>
       <c r="M60" s="15" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5570,11 @@
       </c>
       <c r="K61" s="15" t="n"/>
       <c r="L61" s="14" t="n"/>
-      <c r="M61" s="15" t="n"/>
+      <c r="M61" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A62" s="13" t="inlineStr">
@@ -5613,7 +5646,11 @@
       </c>
       <c r="K62" s="15" t="n"/>
       <c r="L62" s="14" t="n"/>
-      <c r="M62" s="15" t="n"/>
+      <c r="M62" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A63" s="8" t="inlineStr">
@@ -5687,7 +5724,7 @@
       <c r="L63" s="9" t="n"/>
       <c r="M63" s="10" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="N63" s="1" t="n"/>
@@ -5764,7 +5801,7 @@
       <c r="L64" s="9" t="n"/>
       <c r="M64" s="10" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5866,11 @@
       </c>
       <c r="K65" s="21" t="n"/>
       <c r="L65" s="9" t="n"/>
-      <c r="M65" s="10" t="n"/>
+      <c r="M65" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A66" s="13" t="inlineStr">
@@ -7576,7 +7617,11 @@
       </c>
       <c r="K91" s="21" t="n"/>
       <c r="L91" s="9" t="n"/>
-      <c r="M91" s="10" t="n"/>
+      <c r="M91" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="8" t="inlineStr">
@@ -7639,7 +7684,11 @@
       </c>
       <c r="K92" s="21" t="n"/>
       <c r="L92" s="9" t="n"/>
-      <c r="M92" s="10" t="n"/>
+      <c r="M92" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="8" t="inlineStr">
@@ -7702,7 +7751,11 @@
       </c>
       <c r="K93" s="21" t="n"/>
       <c r="L93" s="9" t="n"/>
-      <c r="M93" s="10" t="n"/>
+      <c r="M93" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="8" t="inlineStr">
@@ -7765,7 +7818,11 @@
       </c>
       <c r="K94" s="21" t="n"/>
       <c r="L94" s="9" t="n"/>
-      <c r="M94" s="10" t="n"/>
+      <c r="M94" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="8" t="inlineStr">
@@ -7828,7 +7885,11 @@
       </c>
       <c r="K95" s="21" t="n"/>
       <c r="L95" s="9" t="n"/>
-      <c r="M95" s="10" t="n"/>
+      <c r="M95" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="8" t="inlineStr">
@@ -8499,7 +8560,11 @@
       </c>
       <c r="K104" s="21" t="n"/>
       <c r="L104" s="9" t="n"/>
-      <c r="M104" s="10" t="n"/>
+      <c r="M104" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="8" t="inlineStr">
@@ -9588,7 +9653,11 @@
       </c>
       <c r="K119" s="21" t="n"/>
       <c r="L119" s="9" t="n"/>
-      <c r="M119" s="10" t="n"/>
+      <c r="M119" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="120" ht="30" customHeight="1">
       <c r="A120" s="8" t="inlineStr">
@@ -9734,7 +9803,11 @@
       </c>
       <c r="K121" s="21" t="n"/>
       <c r="L121" s="9" t="n"/>
-      <c r="M121" s="10" t="n"/>
+      <c r="M121" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="A122" s="8" t="inlineStr">
@@ -10088,7 +10161,11 @@
       </c>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="14" t="n"/>
-      <c r="M126" s="15" t="n"/>
+      <c r="M126" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A127" s="13" t="inlineStr">
@@ -10297,7 +10374,11 @@
       </c>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="14" t="n"/>
-      <c r="M129" s="15" t="n"/>
+      <c r="M129" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A130" s="13" t="inlineStr">
@@ -10427,7 +10508,11 @@
       </c>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="14" t="n"/>
-      <c r="M131" s="15" t="n"/>
+      <c r="M131" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A132" s="13" t="inlineStr">
@@ -10490,7 +10575,11 @@
       </c>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="14" t="n"/>
-      <c r="M132" s="15" t="n"/>
+      <c r="M132" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A133" s="13" t="inlineStr">
@@ -10553,7 +10642,11 @@
       </c>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="14" t="n"/>
-      <c r="M133" s="15" t="n"/>
+      <c r="M133" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A134" s="13" t="inlineStr">
@@ -10750,7 +10843,11 @@
       </c>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="14" t="n"/>
-      <c r="M136" s="15" t="n"/>
+      <c r="M136" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A137" s="13" t="inlineStr">
@@ -10813,7 +10910,11 @@
       </c>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="14" t="n"/>
-      <c r="M137" s="15" t="n"/>
+      <c r="M137" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A138" s="13" t="inlineStr">
@@ -10943,7 +11044,11 @@
       </c>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="14" t="n"/>
-      <c r="M139" s="15" t="n"/>
+      <c r="M139" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A140" s="13" t="inlineStr">
@@ -11140,7 +11245,11 @@
       </c>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="14" t="n"/>
-      <c r="M142" s="15" t="n"/>
+      <c r="M142" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A143" s="13" t="inlineStr">
@@ -11203,7 +11312,11 @@
       </c>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="14" t="n"/>
-      <c r="M143" s="15" t="n"/>
+      <c r="M143" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A144" s="13" t="inlineStr">
@@ -11266,7 +11379,11 @@
       </c>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="14" t="n"/>
-      <c r="M144" s="15" t="n"/>
+      <c r="M144" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A145" s="13" t="inlineStr">
@@ -11396,7 +11513,11 @@
       </c>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="14" t="n"/>
-      <c r="M146" s="15" t="n"/>
+      <c r="M146" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="147" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A147" s="13" t="inlineStr">
@@ -11593,7 +11714,11 @@
       </c>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="14" t="n"/>
-      <c r="M149" s="15" t="n"/>
+      <c r="M149" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A150" s="13" t="inlineStr">
@@ -11656,7 +11781,11 @@
       </c>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="14" t="n"/>
-      <c r="M150" s="15" t="n"/>
+      <c r="M150" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="151" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A151" s="13" t="inlineStr">
@@ -11853,7 +11982,11 @@
       </c>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="14" t="n"/>
-      <c r="M153" s="15" t="n"/>
+      <c r="M153" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="26" customFormat="1" customHeight="1" s="5">
       <c r="A154" s="13" t="inlineStr">
@@ -11983,7 +12116,11 @@
       </c>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="14" t="n"/>
-      <c r="M155" s="15" t="n"/>
+      <c r="M155" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="156" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A156" s="13" t="inlineStr">
@@ -12113,7 +12250,11 @@
       </c>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="14" t="n"/>
-      <c r="M157" s="15" t="n"/>
+      <c r="M157" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A158" s="13" t="inlineStr">
@@ -12176,7 +12317,11 @@
       </c>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="14" t="n"/>
-      <c r="M158" s="15" t="n"/>
+      <c r="M158" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="159" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A159" s="13" t="inlineStr">
@@ -12239,7 +12384,11 @@
       </c>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="14" t="n"/>
-      <c r="M159" s="15" t="n"/>
+      <c r="M159" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A160" s="13" t="inlineStr">
@@ -12369,7 +12518,11 @@
       </c>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="14" t="n"/>
-      <c r="M161" s="15" t="n"/>
+      <c r="M161" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="162" ht="26" customFormat="1" customHeight="1" s="5">
       <c r="A162" s="13" t="inlineStr">
@@ -12499,7 +12652,11 @@
       </c>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="14" t="n"/>
-      <c r="M163" s="15" t="n"/>
+      <c r="M163" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="164" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A164" s="13" t="inlineStr">
@@ -12629,7 +12786,11 @@
       </c>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="14" t="n"/>
-      <c r="M165" s="15" t="n"/>
+      <c r="M165" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A166" s="13" t="inlineStr">
@@ -12692,7 +12853,11 @@
       </c>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="14" t="n"/>
-      <c r="M166" s="15" t="n"/>
+      <c r="M166" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="167" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A167" s="13" t="inlineStr">
@@ -12755,7 +12920,11 @@
       </c>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="14" t="n"/>
-      <c r="M167" s="15" t="n"/>
+      <c r="M167" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="168" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A168" s="13" t="inlineStr">
@@ -12818,7 +12987,11 @@
       </c>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="14" t="n"/>
-      <c r="M168" s="15" t="n"/>
+      <c r="M168" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="169" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A169" s="13" t="inlineStr">
@@ -12881,7 +13054,11 @@
       </c>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="14" t="n"/>
-      <c r="M169" s="15" t="n"/>
+      <c r="M169" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A170" s="13" t="inlineStr">
@@ -12944,7 +13121,11 @@
       </c>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="14" t="n"/>
-      <c r="M170" s="15" t="n"/>
+      <c r="M170" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A171" s="13" t="inlineStr">
@@ -13007,7 +13188,11 @@
       </c>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="14" t="n"/>
-      <c r="M171" s="15" t="n"/>
+      <c r="M171" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="172" ht="30" customFormat="1" customHeight="1" s="5">
       <c r="A172" s="13" t="inlineStr">
@@ -13070,7 +13255,11 @@
       </c>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="14" t="n"/>
-      <c r="M172" s="15" t="n"/>
+      <c r="M172" s="15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="30" customHeight="1">
       <c r="A173" s="8" t="inlineStr">
@@ -13267,7 +13456,11 @@
       </c>
       <c r="K175" s="21" t="n"/>
       <c r="L175" s="9" t="n"/>
-      <c r="M175" s="10" t="n"/>
+      <c r="M175" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="A176" s="8" t="inlineStr">
@@ -13464,7 +13657,11 @@
       </c>
       <c r="K178" s="21" t="n"/>
       <c r="L178" s="9" t="n"/>
-      <c r="M178" s="10" t="n"/>
+      <c r="M178" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="179" ht="30" customHeight="1">
       <c r="A179" s="8" t="inlineStr">
@@ -13795,7 +13992,11 @@
       </c>
       <c r="K183" s="21" t="n"/>
       <c r="L183" s="9" t="n"/>
-      <c r="M183" s="10" t="n"/>
+      <c r="M183" s="10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M183"/>
@@ -13968,13 +14169,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>13333544542</v>
+        <v>13333544543</v>
       </c>
     </row>
   </sheetData>

--- a/config/apicase.xlsx
+++ b/config/apicase.xlsx
@@ -5262,7 +5262,7 @@
       <c r="L57" s="9" t="n"/>
       <c r="M57" s="10" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="L64" s="9" t="n"/>
       <c r="M64" s="10" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
